--- a/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_33.xlsx
+++ b/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_33.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>상해종합_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>상해종합_CNY/USD</t>
   </si>
   <si>
-    <t>상해종합_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>상해종합_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>상해종합_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>상해종합_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OECD 소비자물가</t>
   </si>
   <si>
-    <t>상해종합_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>상해종합_두바이유가</t>
   </si>
   <si>
-    <t>상해종합_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>상해종합_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>상해종합_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>상해종합_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>상해종합_미국 REER</t>
   </si>
   <si>
-    <t>상해종합_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>상해종합_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>상해종합_발틱 해운임지수</t>
   </si>
   <si>
-    <t>상해종합_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>상해종합_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>상해종합_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>상해종합_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>상해종합_유로존 Core CPI</t>
   </si>
   <si>
-    <t>상해종합_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>상해종합_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>상해종합_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>상해종합_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>상해종합_일본 ESI</t>
   </si>
   <si>
-    <t>상해종합_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 REER</t>
   </si>
   <si>
-    <t>상해종합_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>상해종합_중국 M1 YoY</t>
   </si>
   <si>
-    <t>상해종합_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>상해종합_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>상해종합_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,1368 +1893,1218 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3</v>
-      </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH3" t="n">
         <v>2</v>
       </c>
-      <c r="AI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV3" t="n">
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
         <v>2</v>
       </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
         <v>2</v>
       </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
+      <c r="DD3" t="n">
         <v>2</v>
       </c>
-      <c r="CR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
+      <c r="DE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG3" t="n">
         <v>2</v>
       </c>
-      <c r="CV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
+      <c r="DH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EG3" t="n">
         <v>2</v>
       </c>
-      <c r="CY3" t="n">
+      <c r="EH3" t="n">
         <v>2</v>
       </c>
-      <c r="CZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
+      <c r="EI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
         <v>2</v>
       </c>
-      <c r="DC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DI3" t="n">
+      <c r="EL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM3" t="n">
+      <c r="ER3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
       <c r="ES3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="ET3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>2</v>
@@ -3338,46 +3113,46 @@
         <v>3</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FD3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
         <v>2</v>
       </c>
-      <c r="FF3" t="n">
+      <c r="FK3" t="n">
         <v>2</v>
       </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0</v>
-      </c>
       <c r="FL3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
@@ -3386,202 +3161,202 @@
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FR3" t="n">
         <v>2</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FU3" t="n">
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FW3" t="n">
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC3" t="n">
         <v>2</v>
       </c>
-      <c r="GB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
       <c r="GD3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH3" t="n">
         <v>0</v>
       </c>
       <c r="GI3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
         <v>2</v>
       </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW3" t="n">
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO3" t="n">
         <v>2</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="HP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
         <v>2</v>
       </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
+      <c r="HV3" t="n">
         <v>2</v>
       </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HJ3" t="n">
+      <c r="HW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
         <v>2</v>
       </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1</v>
-      </c>
       <c r="IC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ID3" t="n">
         <v>0</v>
@@ -3599,930 +3374,780 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="IJ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.4768430180738326</v>
+        <v>-0.4144127645865538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2005930293975407</v>
+        <v>0.2737187924253749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5234989608233324</v>
+        <v>0.6425207572802475</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6089579101726718</v>
+        <v>0.1830145884528881</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2381339310315039</v>
+        <v>0.5988059837370242</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2561468092385048</v>
+        <v>0.4193700252954538</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4433280488631616</v>
+        <v>0.2134048654909967</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3948555023059406</v>
+        <v>0.3247325445665459</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3706010803323033</v>
+        <v>0.1994682322501306</v>
       </c>
       <c r="K4" t="n">
-        <v>0.32353211407069</v>
+        <v>0.5252858061257318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2575925043419531</v>
+        <v>-0.6024167295669395</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2981220564037376</v>
+        <v>0.3038328371607791</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2335896124536486</v>
+        <v>-0.6359605734278017</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5492098037347178</v>
+        <v>0.4003990899825598</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5496440420060085</v>
+        <v>0.3957849235116649</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3962281440094457</v>
+        <v>0.2442641792865118</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.3523597773928441</v>
+        <v>0.2831354232487164</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2831883074697368</v>
+        <v>0.3612796758585915</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.383343874966336</v>
+        <v>0.1878817871574885</v>
       </c>
       <c r="U4" t="n">
-        <v>0.5019985967025637</v>
+        <v>0.4166121401473626</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4886784136217365</v>
+        <v>0.5513942030797848</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1023089254549658</v>
+        <v>0.3399068140738918</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1927797187792452</v>
+        <v>0.3026620552151387</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6243299803511236</v>
+        <v>0.3166935489679444</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.3246779574737</v>
+        <v>0.5026928517027283</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4819192506329711</v>
+        <v>0.3815967770289752</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6232991069304828</v>
+        <v>0.3815382872881337</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4419042217169824</v>
+        <v>0.2320430825287989</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.4104427746532375</v>
+        <v>0.3681231220177131</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2209258365372912</v>
+        <v>0.3755811510367861</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5787604399100527</v>
+        <v>0.3464480461704166</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5583522428334844</v>
+        <v>0.5035760648901747</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.3574990202495455</v>
+        <v>0.2627504390896817</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.4748874122791972</v>
+        <v>0.442010332662372</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.455586952747794</v>
+        <v>-0.3993328832350208</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.5317270925121683</v>
+        <v>0.4947154452384183</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6130129463141429</v>
+        <v>-0.395710226631362</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.5437436645354334</v>
+        <v>-0.5664915989873364</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.3769650899079931</v>
+        <v>-0.3526756213163422</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.4662429434914248</v>
+        <v>0.400858856879673</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.2711928688775427</v>
+        <v>0.3548903199498467</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5274184526286176</v>
+        <v>-0.3604331754832891</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2655770293389104</v>
+        <v>-0.5846423150101665</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.704267041696587</v>
+        <v>0.418030901755602</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4052737851674496</v>
+        <v>0.3994494706878235</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.552047480555324</v>
+        <v>0.4036899405919173</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.2016436386026261</v>
+        <v>0.4222195852366828</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.3072029058830815</v>
+        <v>0.4340052757255187</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.3325986199875578</v>
+        <v>0.4116587595207397</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.5074993531196098</v>
+        <v>0.3911172895345361</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.5200099426083579</v>
+        <v>0.4001951537588344</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.5371276688927779</v>
+        <v>0.470993579293987</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.5463652279259563</v>
+        <v>0.4675249828551725</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.5258595449658078</v>
+        <v>0.1081279544068272</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.5094770587299349</v>
+        <v>0.6061887368546111</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.5262566390555621</v>
+        <v>0.6490195703555568</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.5446274475090797</v>
+        <v>0.272077324939584</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6340946417233041</v>
+        <v>-0.3843911888022203</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.7187926802696759</v>
+        <v>0.3336805165699154</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.4891017671563663</v>
+        <v>-0.2831586158616499</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.7943569608520874</v>
+        <v>0.4025425379544108</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.6710992132720185</v>
+        <v>0.1999396287690802</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.3645253528374325</v>
+        <v>0.3865283210373536</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.5032432476223437</v>
+        <v>0.154814650085184</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.2491397117212001</v>
+        <v>0.3422203435043283</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2737455294261063</v>
+        <v>0.08546504491761199</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.4069269414936628</v>
+        <v>0.392736679709713</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.3890073102619328</v>
+        <v>0.625844624231165</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.205900013310875</v>
+        <v>0.2865649789450674</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.5336989709370705</v>
+        <v>0.4169538884741152</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.3891900771576422</v>
+        <v>0.7091744164711732</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.4243471658627294</v>
+        <v>0.689778454186656</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.1847616153827257</v>
+        <v>0.6054460507661535</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.4511238148503436</v>
+        <v>0.649031056764887</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.3403834852747139</v>
+        <v>-0.6478124776839402</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.4917412298903224</v>
+        <v>-0.4107625602091832</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.4061711316114701</v>
+        <v>0.2900741717356531</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.503200622341984</v>
+        <v>0.519158425919531</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.5757515496480997</v>
+        <v>0.1313044000857346</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6978950285325857</v>
+        <v>0.6961425204257886</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.6028522177759565</v>
+        <v>0.7014090564663479</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7637157754530939</v>
+        <v>0.5043408346975314</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.739618951721518</v>
+        <v>0.2032592617097753</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.5542975781741755</v>
+        <v>-0.5327672277766927</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.4297704051893831</v>
+        <v>0.1628221285746267</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.5294021564546454</v>
+        <v>0.5573132553505071</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.7329657079683271</v>
+        <v>0.2679485032362323</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.4624398799051425</v>
+        <v>0.6057238712768419</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8527330377879059</v>
+        <v>0.3337418635057045</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.694074952907335</v>
+        <v>0.6317295948703764</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.3410045530628288</v>
+        <v>0.242501654499972</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.3537388661014765</v>
+        <v>-0.235816732237657</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.2946866930426241</v>
+        <v>0.354283939420566</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.5707943248159874</v>
+        <v>0.1970032861517905</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5222920010474601</v>
+        <v>0.1578417538954718</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1884252924725305</v>
+        <v>0.4394842406204804</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5513803562371585</v>
+        <v>0.149149090536843</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.3067479308007152</v>
+        <v>0.4206894779828464</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.5597208269405328</v>
+        <v>0.4764130241748834</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.2897700115317576</v>
+        <v>0.3894489561996467</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.3037542721650645</v>
+        <v>0.09446520131283613</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6510828116964726</v>
+        <v>-0.1413408464127025</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.2810251339805528</v>
+        <v>-0.09581735283069938</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3521314528447432</v>
+        <v>0.5738416319841161</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.5698598268322292</v>
+        <v>0.4709795764615346</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0.2086019274233754</v>
+        <v>-0.2309248522781701</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.4632640661873564</v>
+        <v>0.4290808944845334</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.4517742101366247</v>
+        <v>0.4579582643800042</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.4363552503003609</v>
+        <v>-0.2336050010739886</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.2445031092619925</v>
+        <v>0.2236601234325594</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.273101344364676</v>
+        <v>0.3611808372892463</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.1189412163241422</v>
+        <v>0.1439391478224794</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.635752682146698</v>
+        <v>-0.6503340236113718</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.5922364877155989</v>
+        <v>0.2984073405739832</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.1422230488580077</v>
+        <v>0.474560165084513</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.4159957799767444</v>
+        <v>-0.2291713475757424</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.439190156682126</v>
+        <v>0.4169046887411247</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2542641933353386</v>
+        <v>-0.1235986795073103</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.6109441475094856</v>
+        <v>-0.4178127033049616</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.5507946097729812</v>
+        <v>0.242501654499972</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.3089743135099874</v>
+        <v>0.2078174727868258</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.1620219987730195</v>
+        <v>0.3564704265828214</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.07409524485046888</v>
+        <v>0.3338576462943773</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.6110568761900187</v>
+        <v>0.1847077497449396</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.2434617985964354</v>
+        <v>0.3786698527963853</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.4008272011018702</v>
+        <v>0.5892224164234031</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.4910279356448872</v>
+        <v>-0.5608146851539959</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.4166322403936452</v>
+        <v>0.3146444846779685</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.6414621204018988</v>
+        <v>0.3191133574555755</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2868677325308013</v>
+        <v>0.3574566537529323</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.3930045064759177</v>
+        <v>0.3784315150818361</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.2505244065966962</v>
+        <v>0.2921457363660738</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.2897700115317576</v>
+        <v>-0.3337242695041404</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.3713182736231561</v>
+        <v>-0.3178397536745066</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.5881504304455288</v>
+        <v>-0.3132595596239904</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.5985459311124822</v>
+        <v>0.094295383017503</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.4025288380162015</v>
+        <v>0.3613501111033831</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5283956329723861</v>
+        <v>-0.2079472275305332</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.541859734674889</v>
+        <v>0.2294947948191932</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.6383777749085742</v>
+        <v>0.378916505656502</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.4808568475508336</v>
+        <v>0.3503597594751988</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.229045052346241</v>
+        <v>0.2666437378384481</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.3635977607485923</v>
+        <v>0.3152420072013684</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.5157098410630824</v>
+        <v>-0.3927500563993183</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.4109693829109747</v>
+        <v>0.1431603789556568</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.2848201362258206</v>
+        <v>0.1456848789063337</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.5705544357183813</v>
+        <v>0.09944442162167422</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.2115561144062968</v>
+        <v>-0.4882048244689027</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.546464090854865</v>
+        <v>-0.1556086156265131</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.5955676011995309</v>
+        <v>-0.4194316872030806</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.2696979862892477</v>
+        <v>0.2547761521840889</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.2399139475267077</v>
+        <v>0.4667559185418267</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.4577461966910511</v>
+        <v>0.4747573812361605</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.4012006558412948</v>
+        <v>0.3483496023453532</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.1991424839129124</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.4198904047005227</v>
+        <v>0.9594719166463163</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.4916204890672626</v>
+        <v>-0.5854269225948492</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.2999521934690142</v>
+        <v>0.5252858061257318</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1990533064214404</v>
+        <v>0.4579887435573052</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.4914456464082545</v>
+        <v>0.585513854642841</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.5468637340482151</v>
+        <v>0.3998299583973075</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.35341474053134</v>
+        <v>0.1994556997752988</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.5001808982657246</v>
+        <v>0.3482782971175578</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.3251124940051645</v>
+        <v>0.1614407038974877</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.509804630895149</v>
+        <v>0.2299179146417468</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.561760773109424</v>
+        <v>0.2405324725307297</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.362832856690088</v>
+        <v>0.3325550818963824</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.38530180462663</v>
+        <v>0.4287694627060343</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7227557523827632</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.9413237706190944</v>
+        <v>-0.2639599173975407</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.6614090567048438</v>
+        <v>-0.2259193666842694</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.3962281440094457</v>
+        <v>0.2351662746784031</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.413207275798081</v>
+        <v>0.3586508356481929</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.6624036932160718</v>
+        <v>0.5795431263085812</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.1943846623888827</v>
+        <v>0.1295469160348882</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.2388128600613476</v>
+        <v>0.4287694627060343</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.3642990544999379</v>
+        <v>0.6215777898562703</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.1997509263238474</v>
+        <v>0.4360333215228053</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.2523913430034821</v>
+        <v>0.4586385309117557</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.1948983368557122</v>
+        <v>-0.4331989295866834</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6097002808304576</v>
+        <v>0.3230789363504718</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.3925181789916096</v>
+        <v>-0.3992298416895592</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.3724260725659843</v>
+        <v>0.5273288498409173</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.4864620423832833</v>
+        <v>0.4988543251783027</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.7895599418720596</v>
+        <v>0.2671480831127575</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.3575494104068264</v>
+        <v>0.473509450137541</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.07617033014795599</v>
+        <v>0.2866765466019739</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.4909448452524675</v>
+        <v>0.3089781942058701</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3454000868425534</v>
+        <v>0.3717220316988147</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.2293477164222252</v>
+        <v>-0.2687888242109824</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.47756863909555</v>
+        <v>0.437437620185846</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.286767640802185</v>
+        <v>-0.3006503637149472</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.4864620423832833</v>
+        <v>0.2652942981214484</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.1951552741562286</v>
+        <v>0.3099690111178691</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.4430425523841653</v>
+        <v>0.449899139186655</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.5336827191581441</v>
+        <v>-0.5221986295326699</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.5226919305167397</v>
+        <v>-0.2699437801381509</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.3775130620301961</v>
+        <v>0.4374376201858463</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.2628626011946566</v>
+        <v>0.4374376201858463</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.6930261329899285</v>
+        <v>0.4066535779285103</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.5440307725958594</v>
+        <v>0.3828785552025777</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.5492588896704937</v>
+        <v>0.437437620185846</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.4705532968079141</v>
+        <v>-0.2148758499619006</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.5945079204600577</v>
+        <v>0.4553459258699123</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4560093863765648</v>
+        <v>0.2758284034244234</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.4111276678275923</v>
+        <v>0.4128326400634131</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.5661004903326624</v>
+        <v>-0.2277767696281633</v>
       </c>
       <c r="HA4" t="n">
-        <v>-0.1859984557867697</v>
+        <v>0.4368021800832046</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.5276317542089177</v>
+        <v>0.3505636173836729</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.3573898381274432</v>
+        <v>0.1399299412932604</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.4107368419377723</v>
+        <v>-0.2161062106033282</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.31686481288684</v>
+        <v>0.5820116272440328</v>
       </c>
       <c r="HF4" t="n">
-        <v>-0.1757875371924676</v>
+        <v>0.3860993778989418</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.1994500528196208</v>
+        <v>0.6271134358089425</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.313716084397937</v>
+        <v>0.2985700070794912</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.378876498074887</v>
+        <v>-0.2402009917797431</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.2960058905855051</v>
+        <v>0.3487267498327788</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.2503259712248913</v>
+        <v>-0.4883153047379009</v>
       </c>
       <c r="HL4" t="n">
-        <v>0.4107368419377715</v>
+        <v>0.492430945604907</v>
       </c>
       <c r="HM4" t="n">
-        <v>0.4107368419377715</v>
+        <v>0.4109415287818964</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.3831588511770607</v>
+        <v>0.1180643599210621</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.4095107319915609</v>
+        <v>0.2502184356776072</v>
       </c>
       <c r="HP4" t="n">
-        <v>0.4107368419377723</v>
+        <v>0.2381087217824992</v>
       </c>
       <c r="HQ4" t="n">
-        <v>-0.1166675536398113</v>
+        <v>-0.07126810268293669</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.2184932973999044</v>
+        <v>-0.4722583257203245</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.4254343465982428</v>
+        <v>0.2444718217361085</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.2777599197885876</v>
+        <v>-0.3173544323614195</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.1904918838283589</v>
+        <v>0.5802161408607091</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.3475863413160559</v>
+        <v>0.5614199048668689</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.2351502116636173</v>
+        <v>0.4020532842264745</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.1455572387577297</v>
+        <v>0.5174326743320755</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.4290186085428878</v>
+        <v>0.5828262582383896</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.3502442551701146</v>
+        <v>0.3879501411964103</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.4342676206638796</v>
+        <v>-0.4050690704152696</v>
       </c>
       <c r="IB4" t="n">
-        <v>0.234637278136388</v>
+        <v>0.07187659234247924</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.3821547236564619</v>
+        <v>0.419971062188726</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4677966828063627</v>
+        <v>-0.2123962563489013</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.3132209832751083</v>
+        <v>0.4802687042378516</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.5809371266403585</v>
+        <v>0.2013108582143859</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.297479686336148</v>
+        <v>-0.4556657782556632</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.3845602938699924</v>
+        <v>-0.09710006994704215</v>
       </c>
       <c r="II4" t="n">
-        <v>0.2472933075631912</v>
+        <v>0.4802687042378516</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.097994301312118</v>
+        <v>0.6125012876993967</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.1060373456914048</v>
+        <v>-0.2538261982807074</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.6400574221635894</v>
+        <v>0.2544591162065535</v>
       </c>
       <c r="IM4" t="n">
-        <v>0.1752511421074869</v>
+        <v>0.4433667767869585</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.200297249528463</v>
+        <v>-0.444582692472699</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.2732853597537178</v>
+        <v>0.5616375622580183</v>
       </c>
       <c r="IP4" t="n">
-        <v>0.15474163301091</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.4129332781986437</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.2246673389529327</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.260288287614818</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.5188211104394068</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.4531916986975407</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.3069275292471936</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.4204330759374804</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.4375544871879731</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0.3371714263583884</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.3033260731585039</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1576183773048907</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.1343993706135923</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.3784841211988703</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.4580129363980153</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2180844518371716</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.3373433740607227</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.1980133018782249</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.4580129363980153</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.3173522091410567</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>0.06760245575987647</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2756360945490678</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2218144519554493</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.5241979996436807</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.7217852644372492</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8275843682133663</v>
+        <v>0.7550990389535421</v>
       </c>
     </row>
   </sheetData>
